--- a/assets/2019/Grades_20190901.xlsx
+++ b/assets/2019/Grades_20190901.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>TEAM</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Given Name</t>
   </si>
   <si>
-    <t>Preferred Name</t>
-  </si>
-  <si>
-    <t>Student ID #</t>
-  </si>
-  <si>
     <t>TBL 1 (phys props) [20 pts]</t>
   </si>
   <si>
@@ -117,6 +111,282 @@
   </si>
   <si>
     <t>Final Exam Total</t>
+  </si>
+  <si>
+    <t>Student Number</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Alphonso</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Brezanoczy Edwards</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Cheang</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Cleghorn</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Dhanoa</t>
+  </si>
+  <si>
+    <t>Tavjot</t>
+  </si>
+  <si>
+    <t>ElAmir</t>
+  </si>
+  <si>
+    <t>Nouran</t>
+  </si>
+  <si>
+    <t>Farahat</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Fretier-Gauvin</t>
+  </si>
+  <si>
+    <t>Émile</t>
+  </si>
+  <si>
+    <t>Fu</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Fuhr</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Gibbard</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>Maddy</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Khairul Izman</t>
+  </si>
+  <si>
+    <t>Wan Azhar Zulka</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Mejia</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>Kendra</t>
+  </si>
+  <si>
+    <t>Musaev</t>
+  </si>
+  <si>
+    <t>Nodir</t>
+  </si>
+  <si>
+    <t>Musinga</t>
+  </si>
+  <si>
+    <t>Arlena</t>
+  </si>
+  <si>
+    <t>Myrol</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Naylor</t>
+  </si>
+  <si>
+    <t>Annika</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>O'Connor</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Ong</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Perico</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Ciaran</t>
+  </si>
+  <si>
+    <t>Rurange</t>
+  </si>
+  <si>
+    <t>Yohann</t>
+  </si>
+  <si>
+    <t>Sarrazin</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Sherwood</t>
+  </si>
+  <si>
+    <t>Meghan</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Spielmann</t>
+  </si>
+  <si>
+    <t>Raffaele</t>
+  </si>
+  <si>
+    <t>Thakur</t>
+  </si>
+  <si>
+    <t>Kshitijendra</t>
+  </si>
+  <si>
+    <t>Uthayakumar</t>
+  </si>
+  <si>
+    <t>Piradeepan</t>
+  </si>
+  <si>
+    <t>Valerio</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Vandenburg</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Wenjing</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>Weller</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Westerlund</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Xia</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Lulu</t>
   </si>
 </sst>
 </file>
@@ -126,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,8 +441,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +497,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -255,19 +537,6 @@
       <top/>
       <bottom style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -379,12 +648,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -419,52 +804,68 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,18 +1153,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
@@ -802,98 +1203,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="F1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="N1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="31" t="s">
+      <c r="R1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="31" t="s">
+      <c r="AC1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AD1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AE1" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="32" t="s">
-        <v>30</v>
       </c>
       <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
@@ -906,38 +1307,46 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="74">
+        <v>24138877</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="63">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="46"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="28"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="53"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50"/>
       <c r="T2" s="29"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="53"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="50"/>
       <c r="AD2" s="29"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="63"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="60"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="16"/>
@@ -948,38 +1357,46 @@
       <c r="AN2" s="6"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="73">
+        <v>34104786</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="64">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="43"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="19"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="47"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="54"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="51"/>
       <c r="AD3" s="21"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="63"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="60"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="17"/>
       <c r="AI3" s="16"/>
@@ -990,38 +1407,46 @@
       <c r="AN3" s="6"/>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="73">
+        <v>22590137</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="43"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="47"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="54"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="51"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="54"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="51"/>
       <c r="AD4" s="21"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="63"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="60"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="17"/>
       <c r="AI4" s="16"/>
@@ -1032,38 +1457,46 @@
       <c r="AN4" s="6"/>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="73">
+        <v>10738201</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="64">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="19"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="47"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="54"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="51"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="54"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="51"/>
       <c r="AD5" s="21"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="63"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="60"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="17"/>
       <c r="AI5" s="16"/>
@@ -1074,38 +1507,46 @@
       <c r="AN5" s="6"/>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="73">
+        <v>42659235</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="43"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="19"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="54"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="54"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="63"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="60"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="17"/>
       <c r="AI6" s="16"/>
@@ -1116,38 +1557,46 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="73">
+        <v>68356468</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="64">
+        <v>1</v>
+      </c>
+      <c r="E7" s="33"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="19"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="54"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="51"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="51"/>
       <c r="AD7" s="21"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="63"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="60"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="17"/>
       <c r="AI7" s="16"/>
@@ -1158,38 +1607,46 @@
       <c r="AN7" s="6"/>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="73">
+        <v>13443156</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="64">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="43"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="19"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="51"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="54"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="51"/>
       <c r="AD8" s="21"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="63"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="60"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="16"/>
@@ -1200,38 +1657,46 @@
       <c r="AN8" s="6"/>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="73">
+        <v>64704091</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="34">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="43"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="54"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="51"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="54"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="51"/>
       <c r="AD9" s="21"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="63"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="60"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="17"/>
       <c r="AI9" s="16"/>
@@ -1242,38 +1707,46 @@
       <c r="AN9" s="6"/>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="73">
+        <v>68222934</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="79">
+        <v>2</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="43"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="44"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="54"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="51"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="54"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="51"/>
       <c r="AD10" s="21"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="63"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="60"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="17"/>
       <c r="AI10" s="16"/>
@@ -1284,38 +1757,46 @@
       <c r="AN10" s="6"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="73">
+        <v>17080342</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="34">
+        <v>2</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="43"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="19"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="44"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="54"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="51"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="54"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="51"/>
       <c r="AD11" s="21"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="63"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="60"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="16"/>
@@ -1326,38 +1807,46 @@
       <c r="AN11" s="6"/>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="34"/>
+      <c r="A12" s="73">
+        <v>64123821</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="34">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="43"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="45"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="54"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="51"/>
       <c r="T12" s="21"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="54"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="51"/>
       <c r="AD12" s="21"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="63"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="60"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="16"/>
@@ -1368,38 +1857,46 @@
       <c r="AN12" s="6"/>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="73">
+        <v>13274162</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="34">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="43"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="19"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="44"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="54"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="51"/>
       <c r="T13" s="21"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="54"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="51"/>
       <c r="AD13" s="21"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="63"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="60"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="16"/>
@@ -1410,38 +1907,46 @@
       <c r="AN13" s="6"/>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="73">
+        <v>58451097</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="43"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="19"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="44"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="54"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="51"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="51"/>
       <c r="AD14" s="21"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="63"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="60"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="16"/>
@@ -1452,38 +1957,46 @@
       <c r="AN14" s="6"/>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34"/>
+      <c r="A15" s="73">
+        <v>13222154</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="34">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="43"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="19"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="51"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="51"/>
       <c r="AD15" s="21"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="63"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="60"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="16"/>
@@ -1494,38 +2007,46 @@
       <c r="AN15" s="6"/>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="73">
+        <v>57060155</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="34">
+        <v>3</v>
+      </c>
+      <c r="E16" s="33"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="19"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="47"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="54"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="54"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="51"/>
       <c r="AD16" s="21"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="63"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="60"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="16"/>
@@ -1536,38 +2057,46 @@
       <c r="AN16" s="6"/>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="73">
+        <v>16211393</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="34">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="43"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="47"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="44"/>
       <c r="Q17" s="22"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="54"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="54"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="51"/>
       <c r="AD17" s="21"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="63"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="60"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="16"/>
@@ -1578,38 +2107,46 @@
       <c r="AN17" s="6"/>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="73">
+        <v>61868162</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="79">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="43"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="47"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="44"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="54"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="54"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="51"/>
       <c r="AD18" s="21"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="63"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="60"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="16"/>
@@ -1620,38 +2157,46 @@
       <c r="AN18" s="6"/>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="73">
+        <v>50829167</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="34">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="39"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="43"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="46"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="54"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="54"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="51"/>
       <c r="AD19" s="21"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="63"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="60"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="16"/>
@@ -1662,38 +2207,46 @@
       <c r="AN19" s="6"/>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="34"/>
+      <c r="A20" s="73">
+        <v>37114139</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="34">
+        <v>4</v>
+      </c>
+      <c r="E20" s="33"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="19"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="47"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="44"/>
       <c r="Q20" s="22"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="54"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="51"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="54"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="21"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="63"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="60"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="16"/>
@@ -1704,38 +2257,46 @@
       <c r="AN20" s="6"/>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="34"/>
+      <c r="A21" s="73">
+        <v>63709935</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="34">
+        <v>4</v>
+      </c>
+      <c r="E21" s="33"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="19"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="47"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="44"/>
       <c r="Q21" s="22"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="54"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="51"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="54"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="51"/>
       <c r="AD21" s="21"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="63"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="60"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="16"/>
@@ -1746,38 +2307,46 @@
       <c r="AN21" s="6"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="34"/>
+      <c r="A22" s="73">
+        <v>48131156</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="34">
+        <v>4</v>
+      </c>
+      <c r="E22" s="33"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="43"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="19"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="47"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="44"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="54"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="21"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="54"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="51"/>
       <c r="AD22" s="21"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="63"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="60"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="17"/>
       <c r="AI22" s="16"/>
@@ -1788,38 +2357,46 @@
       <c r="AN22" s="6"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="73">
+        <v>84768662</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="34">
+        <v>4</v>
+      </c>
+      <c r="E23" s="33"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="47"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="44"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="54"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="51"/>
       <c r="AD23" s="21"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="63"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="60"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="16"/>
@@ -1830,38 +2407,46 @@
       <c r="AN23" s="6"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="73">
+        <v>69848349</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="34">
+        <v>4</v>
+      </c>
+      <c r="E24" s="33"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="39"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="43"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="50"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="47"/>
       <c r="Q24" s="22"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="54"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="51"/>
       <c r="T24" s="21"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="54"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="51"/>
       <c r="AD24" s="21"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="63"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="60"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="17"/>
       <c r="AI24" s="16"/>
@@ -1872,38 +2457,46 @@
       <c r="AN24" s="6"/>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="73">
+        <v>13394572</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="34">
+        <v>4</v>
+      </c>
+      <c r="E25" s="33"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="39"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="43"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="48"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="22"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="54"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="51"/>
       <c r="T25" s="21"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="54"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="51"/>
       <c r="AD25" s="21"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="63"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="60"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="16"/>
@@ -1914,38 +2507,46 @@
       <c r="AN25" s="6"/>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="34"/>
+      <c r="A26" s="73">
+        <v>56720162</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="79">
+        <v>5</v>
+      </c>
+      <c r="E26" s="33"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="39"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="43"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="19"/>
       <c r="N26" s="20"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="46"/>
       <c r="Q26" s="22"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="54"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="21"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="51"/>
       <c r="AD26" s="21"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="63"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="60"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="17"/>
       <c r="AI26" s="16"/>
@@ -1956,38 +2557,46 @@
       <c r="AN26" s="6"/>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="34"/>
+      <c r="A27" s="73">
+        <v>74249889</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="34">
+        <v>5</v>
+      </c>
+      <c r="E27" s="33"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="39"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="43"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="40"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="47"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="22"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="54"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="51"/>
       <c r="T27" s="21"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="51"/>
       <c r="AD27" s="21"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="63"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="60"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="17"/>
       <c r="AI27" s="16"/>
@@ -1998,38 +2607,46 @@
       <c r="AN27" s="6"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="73">
+        <v>31413024</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="34">
+        <v>5</v>
+      </c>
+      <c r="E28" s="33"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="39"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="43"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="40"/>
       <c r="M28" s="19"/>
       <c r="N28" s="20"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="47"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="22"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="54"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="51"/>
       <c r="T28" s="21"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="54"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="51"/>
       <c r="AD28" s="21"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="63"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="60"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="16"/>
@@ -2040,38 +2657,46 @@
       <c r="AN28" s="6"/>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="73">
+        <v>39569322</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="34">
+        <v>5</v>
+      </c>
+      <c r="E29" s="33"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="39"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="43"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="19"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="47"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="44"/>
       <c r="Q29" s="22"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="54"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="51"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="54"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="51"/>
       <c r="AD29" s="21"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="63"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="60"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="17"/>
       <c r="AI29" s="16"/>
@@ -2082,38 +2707,46 @@
       <c r="AN29" s="6"/>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="73">
+        <v>18814301</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="34">
+        <v>5</v>
+      </c>
+      <c r="E30" s="33"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="39"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="43"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="19"/>
       <c r="N30" s="20"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="47"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="44"/>
       <c r="Q30" s="22"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="54"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="51"/>
       <c r="T30" s="21"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="54"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="51"/>
       <c r="AD30" s="21"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="63"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="60"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="17"/>
       <c r="AI30" s="16"/>
@@ -2124,38 +2757,46 @@
       <c r="AN30" s="6"/>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="73">
+        <v>99803272</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="34">
+        <v>5</v>
+      </c>
+      <c r="E31" s="33"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="43"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="40"/>
       <c r="M31" s="19"/>
       <c r="N31" s="20"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="47"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="44"/>
       <c r="Q31" s="22"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="54"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="51"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="54"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="51"/>
       <c r="AD31" s="21"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="63"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="60"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="16"/>
@@ -2166,38 +2807,46 @@
       <c r="AN31" s="6"/>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="34"/>
+      <c r="A32" s="73">
+        <v>50144823</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="34">
+        <v>6</v>
+      </c>
+      <c r="E32" s="33"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="39"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="43"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="40"/>
       <c r="M32" s="19"/>
       <c r="N32" s="20"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="47"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="44"/>
       <c r="Q32" s="22"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="54"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="51"/>
       <c r="T32" s="21"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="54"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="51"/>
       <c r="AD32" s="21"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="63"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="60"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="17"/>
       <c r="AI32" s="16"/>
@@ -2208,38 +2857,46 @@
       <c r="AN32" s="6"/>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="34"/>
+      <c r="A33" s="73">
+        <v>18876987</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="34">
+        <v>6</v>
+      </c>
+      <c r="E33" s="33"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="43"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="19"/>
       <c r="N33" s="20"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="47"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="44"/>
       <c r="Q33" s="22"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="54"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="51"/>
       <c r="T33" s="21"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="54"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="51"/>
       <c r="AD33" s="21"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="63"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="60"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="17"/>
       <c r="AI33" s="16"/>
@@ -2250,38 +2907,46 @@
       <c r="AN33" s="6"/>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="34"/>
+      <c r="A34" s="73">
+        <v>10692144</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="79">
+        <v>6</v>
+      </c>
+      <c r="E34" s="33"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="39"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="43"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="19"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="47"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="44"/>
       <c r="Q34" s="22"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="54"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="51"/>
       <c r="T34" s="21"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="54"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="51"/>
       <c r="AD34" s="21"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="63"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="17"/>
       <c r="AI34" s="16"/>
@@ -2292,38 +2957,46 @@
       <c r="AN34" s="6"/>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="34"/>
+      <c r="A35" s="73">
+        <v>42446161</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="34">
+        <v>6</v>
+      </c>
+      <c r="E35" s="33"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="39"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="43"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="19"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="47"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="44"/>
       <c r="Q35" s="22"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="54"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="51"/>
       <c r="T35" s="21"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="54"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="51"/>
       <c r="AD35" s="21"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="63"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="60"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="17"/>
       <c r="AI35" s="16"/>
@@ -2334,38 +3007,46 @@
       <c r="AN35" s="6"/>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="34"/>
+      <c r="A36" s="73">
+        <v>56224470</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="34">
+        <v>6</v>
+      </c>
+      <c r="E36" s="33"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="39"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="43"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="19"/>
       <c r="N36" s="20"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="47"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="44"/>
       <c r="Q36" s="22"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="54"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="51"/>
       <c r="T36" s="21"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="54"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="51"/>
       <c r="AD36" s="21"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="63"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="60"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="16"/>
@@ -2376,38 +3057,46 @@
       <c r="AN36" s="6"/>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="34"/>
+      <c r="A37" s="73">
+        <v>22545164</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="34">
+        <v>6</v>
+      </c>
+      <c r="E37" s="33"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="39"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="43"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="47"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="44"/>
       <c r="Q37" s="22"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="54"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="51"/>
       <c r="T37" s="21"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="54"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="51"/>
       <c r="AD37" s="21"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="63"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="60"/>
       <c r="AG37" s="16"/>
       <c r="AH37" s="17"/>
       <c r="AI37" s="16"/>
@@ -2418,38 +3107,46 @@
       <c r="AN37" s="6"/>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="34"/>
+      <c r="A38" s="73">
+        <v>34014126</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="34">
+        <v>7</v>
+      </c>
+      <c r="E38" s="33"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="43"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="40"/>
       <c r="M38" s="19"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="47"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="44"/>
       <c r="Q38" s="22"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="54"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="51"/>
       <c r="T38" s="21"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="51"/>
       <c r="AD38" s="21"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="63"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="60"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="17"/>
       <c r="AI38" s="16"/>
@@ -2460,38 +3157,46 @@
       <c r="AN38" s="6"/>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="73">
+        <v>47677869</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="34">
+        <v>7</v>
+      </c>
+      <c r="E39" s="33"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="43"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="19"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="47"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="44"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="54"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="51"/>
       <c r="T39" s="21"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="65"/>
-      <c r="AC39" s="54"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="51"/>
       <c r="AD39" s="21"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="63"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="60"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="16"/>
@@ -2502,38 +3207,46 @@
       <c r="AN39" s="6"/>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="73">
+        <v>36962165</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="34">
+        <v>7</v>
+      </c>
+      <c r="E40" s="33"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="39"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="43"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="40"/>
       <c r="M40" s="19"/>
       <c r="N40" s="20"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="47"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="44"/>
       <c r="Q40" s="22"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="54"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="51"/>
       <c r="T40" s="21"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="54"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="51"/>
       <c r="AD40" s="21"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="63"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="60"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="17"/>
       <c r="AI40" s="16"/>
@@ -2544,38 +3257,46 @@
       <c r="AN40" s="6"/>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="34"/>
+      <c r="A41" s="73">
+        <v>13572145</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="34">
+        <v>7</v>
+      </c>
+      <c r="E41" s="33"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="39"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="43"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="40"/>
       <c r="M41" s="19"/>
       <c r="N41" s="20"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="47"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="44"/>
       <c r="Q41" s="22"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="54"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="51"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="54"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="51"/>
       <c r="AD41" s="21"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="63"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="60"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="16"/>
@@ -2586,38 +3307,46 @@
       <c r="AN41" s="6"/>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="34"/>
+      <c r="A42" s="73">
+        <v>45944162</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="78">
+        <v>7</v>
+      </c>
+      <c r="E42" s="33"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="39"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="43"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="40"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="50"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="47"/>
       <c r="Q42" s="22"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="54"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="51"/>
       <c r="T42" s="21"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="54"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="51"/>
       <c r="AD42" s="21"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="63"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="60"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="17"/>
       <c r="AI42" s="16"/>
@@ -2628,38 +3357,46 @@
       <c r="AN42" s="6"/>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="73">
+        <v>77259695</v>
+      </c>
+      <c r="B43" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="64">
+        <v>8</v>
+      </c>
+      <c r="E43" s="33"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="39"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="43"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="46"/>
       <c r="Q43" s="22"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="54"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="51"/>
       <c r="T43" s="21"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="54"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="51"/>
       <c r="AD43" s="21"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="63"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="60"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="17"/>
       <c r="AI43" s="16"/>
@@ -2670,38 +3407,46 @@
       <c r="AN43" s="6"/>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="34"/>
+      <c r="A44" s="73">
+        <v>87646949</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="64">
+        <v>8</v>
+      </c>
+      <c r="E44" s="33"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="39"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="43"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="40"/>
       <c r="M44" s="19"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="47"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="44"/>
       <c r="Q44" s="22"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="54"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="51"/>
       <c r="T44" s="21"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="54"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="51"/>
       <c r="AD44" s="21"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="63"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="60"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="17"/>
       <c r="AI44" s="16"/>
@@ -2712,38 +3457,46 @@
       <c r="AN44" s="6"/>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="73">
+        <v>24846157</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="64">
+        <v>8</v>
+      </c>
+      <c r="E45" s="33"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="39"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="43"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="40"/>
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="47"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="44"/>
       <c r="Q45" s="22"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="54"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="51"/>
       <c r="T45" s="21"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="54"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="59"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="51"/>
       <c r="AD45" s="21"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="63"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="60"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="17"/>
       <c r="AI45" s="16"/>
@@ -2754,38 +3507,46 @@
       <c r="AN45" s="6"/>
     </row>
     <row r="46" spans="1:40">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="34"/>
+      <c r="A46" s="73">
+        <v>21706163</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="64">
+        <v>8</v>
+      </c>
+      <c r="E46" s="33"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="43"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="40"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="47"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="44"/>
       <c r="Q46" s="22"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="54"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="51"/>
       <c r="T46" s="21"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="54"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="59"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="51"/>
       <c r="AD46" s="21"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="63"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="60"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="17"/>
       <c r="AI46" s="16"/>
@@ -2796,38 +3557,46 @@
       <c r="AN46" s="6"/>
     </row>
     <row r="47" spans="1:40">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="73">
+        <v>60557394</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="64">
+        <v>8</v>
+      </c>
+      <c r="E47" s="33"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="43"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="40"/>
       <c r="M47" s="19"/>
       <c r="N47" s="20"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="47"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="22"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="54"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="51"/>
       <c r="T47" s="21"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="54"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="59"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="51"/>
       <c r="AD47" s="21"/>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="63"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="60"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="17"/>
       <c r="AI47" s="16"/>
@@ -2838,38 +3607,46 @@
       <c r="AN47" s="6"/>
     </row>
     <row r="48" spans="1:40">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="34"/>
+      <c r="A48" s="73">
+        <v>20823143</v>
+      </c>
+      <c r="B48" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="64">
+        <v>8</v>
+      </c>
+      <c r="E48" s="33"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="43"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="40"/>
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="47"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="44"/>
       <c r="Q48" s="22"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="54"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="51"/>
       <c r="T48" s="21"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="54"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="51"/>
       <c r="AD48" s="21"/>
-      <c r="AE48" s="58"/>
-      <c r="AF48" s="63"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="60"/>
       <c r="AG48" s="16"/>
       <c r="AH48" s="17"/>
       <c r="AI48" s="16"/>
@@ -2880,38 +3657,38 @@
       <c r="AN48" s="6"/>
     </row>
     <row r="49" spans="1:40">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="34"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="39"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="43"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="40"/>
       <c r="M49" s="19"/>
       <c r="N49" s="20"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="47"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="44"/>
       <c r="Q49" s="22"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="54"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="51"/>
       <c r="T49" s="21"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="65"/>
-      <c r="AC49" s="54"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="59"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="51"/>
       <c r="AD49" s="21"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="63"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="60"/>
       <c r="AG49" s="16"/>
       <c r="AH49" s="17"/>
       <c r="AI49" s="16"/>
@@ -2922,38 +3699,38 @@
       <c r="AN49" s="6"/>
     </row>
     <row r="50" spans="1:40">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="34"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="43"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="40"/>
       <c r="M50" s="19"/>
       <c r="N50" s="20"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="47"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="44"/>
       <c r="Q50" s="22"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="54"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="51"/>
       <c r="T50" s="21"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="65"/>
-      <c r="AC50" s="54"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="51"/>
       <c r="AD50" s="21"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="63"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="60"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="17"/>
       <c r="AI50" s="16"/>
@@ -2964,38 +3741,38 @@
       <c r="AN50" s="6"/>
     </row>
     <row r="51" spans="1:40">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="34"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="39"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="43"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="40"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="50"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="47"/>
       <c r="Q51" s="22"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="54"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="51"/>
       <c r="T51" s="21"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="65"/>
-      <c r="AC51" s="54"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="51"/>
       <c r="AD51" s="21"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="63"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="60"/>
       <c r="AG51" s="16"/>
       <c r="AH51" s="17"/>
       <c r="AI51" s="16"/>
@@ -3006,38 +3783,38 @@
       <c r="AN51" s="6"/>
     </row>
     <row r="52" spans="1:40">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="34"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="43"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="19"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="46"/>
       <c r="Q52" s="22"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="54"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="51"/>
       <c r="T52" s="21"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="54"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="62"/>
+      <c r="AC52" s="51"/>
       <c r="AD52" s="21"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="63"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="60"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="17"/>
       <c r="AI52" s="16"/>
@@ -3048,38 +3825,38 @@
       <c r="AN52" s="6"/>
     </row>
     <row r="53" spans="1:40">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="39"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="43"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="40"/>
       <c r="M53" s="19"/>
       <c r="N53" s="20"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="47"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="44"/>
       <c r="Q53" s="22"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="54"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="51"/>
       <c r="T53" s="21"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="54"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="51"/>
       <c r="AD53" s="21"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="63"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="60"/>
       <c r="AG53" s="16"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16"/>
@@ -3090,38 +3867,38 @@
       <c r="AN53" s="6"/>
     </row>
     <row r="54" spans="1:40">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="39"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="43"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="40"/>
       <c r="M54" s="19"/>
       <c r="N54" s="20"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="47"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="44"/>
       <c r="Q54" s="22"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="54"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="51"/>
       <c r="T54" s="21"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="60"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="65"/>
-      <c r="AC54" s="54"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="62"/>
+      <c r="AC54" s="51"/>
       <c r="AD54" s="21"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="63"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="60"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="17"/>
       <c r="AI54" s="16"/>
@@ -3132,38 +3909,38 @@
       <c r="AN54" s="6"/>
     </row>
     <row r="55" spans="1:40">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="39"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="43"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="40"/>
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="47"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="44"/>
       <c r="Q55" s="22"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="54"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="51"/>
       <c r="T55" s="21"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="60"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="54"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="51"/>
       <c r="AD55" s="21"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="63"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="60"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="17"/>
       <c r="AI55" s="16"/>
@@ -3174,38 +3951,38 @@
       <c r="AN55" s="6"/>
     </row>
     <row r="56" spans="1:40">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="34"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="39"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="43"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="40"/>
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="47"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="44"/>
       <c r="Q56" s="22"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="54"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="51"/>
       <c r="T56" s="21"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="65"/>
-      <c r="AC56" s="54"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="51"/>
       <c r="AD56" s="21"/>
-      <c r="AE56" s="58"/>
-      <c r="AF56" s="63"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="60"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="17"/>
       <c r="AI56" s="16"/>
@@ -3216,38 +3993,38 @@
       <c r="AN56" s="6"/>
     </row>
     <row r="57" spans="1:40">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="34"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="39"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="43"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="40"/>
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="47"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="44"/>
       <c r="Q57" s="22"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="54"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="51"/>
       <c r="T57" s="21"/>
-      <c r="U57" s="58"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="65"/>
-      <c r="AC57" s="54"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="62"/>
+      <c r="AC57" s="51"/>
       <c r="AD57" s="21"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="63"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="60"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16"/>
@@ -3258,38 +4035,38 @@
       <c r="AN57" s="6"/>
     </row>
     <row r="58" spans="1:40">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="34"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="39"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="43"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="40"/>
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="50"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="47"/>
       <c r="Q58" s="22"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="54"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="51"/>
       <c r="T58" s="21"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="62"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="65"/>
-      <c r="AC58" s="54"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="51"/>
       <c r="AD58" s="21"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="63"/>
+      <c r="AE58" s="55"/>
+      <c r="AF58" s="60"/>
       <c r="AG58" s="16"/>
       <c r="AH58" s="17"/>
       <c r="AI58" s="16"/>
@@ -3300,38 +4077,38 @@
       <c r="AN58" s="6"/>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="34"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="39"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="43"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="40"/>
       <c r="M59" s="19"/>
       <c r="N59" s="20"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="46"/>
       <c r="Q59" s="22"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="54"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="51"/>
       <c r="T59" s="21"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="45"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="65"/>
-      <c r="AC59" s="54"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="62"/>
+      <c r="AC59" s="51"/>
       <c r="AD59" s="21"/>
-      <c r="AE59" s="58"/>
-      <c r="AF59" s="63"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="60"/>
       <c r="AG59" s="16"/>
       <c r="AH59" s="17"/>
       <c r="AI59" s="16"/>
@@ -3342,38 +4119,38 @@
       <c r="AN59" s="6"/>
     </row>
     <row r="60" spans="1:40">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="34"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="39"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="43"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="40"/>
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="47"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="44"/>
       <c r="Q60" s="22"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="54"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="51"/>
       <c r="T60" s="21"/>
-      <c r="U60" s="58"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="45"/>
-      <c r="Z60" s="62"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="65"/>
-      <c r="AC60" s="54"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="62"/>
+      <c r="AC60" s="51"/>
       <c r="AD60" s="21"/>
-      <c r="AE60" s="58"/>
-      <c r="AF60" s="63"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="60"/>
       <c r="AG60" s="16"/>
       <c r="AH60" s="17"/>
       <c r="AI60" s="16"/>
@@ -3384,38 +4161,38 @@
       <c r="AN60" s="6"/>
     </row>
     <row r="61" spans="1:40">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="34"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="39"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="43"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="40"/>
       <c r="M61" s="19"/>
       <c r="N61" s="20"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="47"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="44"/>
       <c r="Q61" s="22"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="54"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="51"/>
       <c r="T61" s="21"/>
-      <c r="U61" s="58"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="45"/>
-      <c r="Z61" s="62"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="65"/>
-      <c r="AC61" s="54"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="62"/>
+      <c r="AC61" s="51"/>
       <c r="AD61" s="21"/>
-      <c r="AE61" s="58"/>
-      <c r="AF61" s="63"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="60"/>
       <c r="AG61" s="16"/>
       <c r="AH61" s="17"/>
       <c r="AI61" s="16"/>
@@ -3426,38 +4203,38 @@
       <c r="AN61" s="6"/>
     </row>
     <row r="62" spans="1:40">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="34"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="39"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="43"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="40"/>
       <c r="M62" s="19"/>
       <c r="N62" s="20"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="47"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="44"/>
       <c r="Q62" s="22"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="54"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="51"/>
       <c r="T62" s="21"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="60"/>
-      <c r="Y62" s="45"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="65"/>
-      <c r="AC62" s="54"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="59"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="62"/>
+      <c r="AC62" s="51"/>
       <c r="AD62" s="21"/>
-      <c r="AE62" s="58"/>
-      <c r="AF62" s="63"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="60"/>
       <c r="AG62" s="16"/>
       <c r="AH62" s="17"/>
       <c r="AI62" s="16"/>
@@ -3468,38 +4245,38 @@
       <c r="AN62" s="6"/>
     </row>
     <row r="63" spans="1:40">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="34"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="33"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="39"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="43"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="40"/>
       <c r="M63" s="19"/>
       <c r="N63" s="20"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="47"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="44"/>
       <c r="Q63" s="22"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="54"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="51"/>
       <c r="T63" s="21"/>
-      <c r="U63" s="58"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="45"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="65"/>
-      <c r="AC63" s="54"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="62"/>
+      <c r="AC63" s="51"/>
       <c r="AD63" s="21"/>
-      <c r="AE63" s="58"/>
-      <c r="AF63" s="63"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="60"/>
       <c r="AG63" s="16"/>
       <c r="AH63" s="17"/>
       <c r="AI63" s="16"/>
@@ -3510,38 +4287,38 @@
       <c r="AN63" s="6"/>
     </row>
     <row r="64" spans="1:40">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="34"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="39"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="43"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="40"/>
       <c r="M64" s="19"/>
       <c r="N64" s="20"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="47"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="44"/>
       <c r="Q64" s="22"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="54"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="51"/>
       <c r="T64" s="21"/>
-      <c r="U64" s="58"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="45"/>
-      <c r="Z64" s="62"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="65"/>
-      <c r="AC64" s="54"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="62"/>
+      <c r="AC64" s="51"/>
       <c r="AD64" s="21"/>
-      <c r="AE64" s="58"/>
-      <c r="AF64" s="63"/>
+      <c r="AE64" s="55"/>
+      <c r="AF64" s="60"/>
       <c r="AG64" s="16"/>
       <c r="AH64" s="17"/>
       <c r="AI64" s="16"/>
@@ -3552,38 +4329,38 @@
       <c r="AN64" s="6"/>
     </row>
     <row r="65" spans="1:40">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="34"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="33"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="39"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="43"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="40"/>
       <c r="M65" s="19"/>
       <c r="N65" s="20"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="47"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="44"/>
       <c r="Q65" s="22"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="54"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="51"/>
       <c r="T65" s="21"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="45"/>
-      <c r="Z65" s="62"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="54"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="62"/>
+      <c r="AC65" s="51"/>
       <c r="AD65" s="21"/>
-      <c r="AE65" s="58"/>
-      <c r="AF65" s="63"/>
+      <c r="AE65" s="55"/>
+      <c r="AF65" s="60"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="17"/>
       <c r="AI65" s="16"/>
@@ -3594,38 +4371,38 @@
       <c r="AN65" s="6"/>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="34"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="39"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="43"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="40"/>
       <c r="M66" s="19"/>
       <c r="N66" s="20"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="47"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="44"/>
       <c r="Q66" s="22"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="54"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="51"/>
       <c r="T66" s="21"/>
-      <c r="U66" s="58"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="45"/>
-      <c r="Z66" s="62"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="65"/>
-      <c r="AC66" s="54"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="62"/>
+      <c r="AC66" s="51"/>
       <c r="AD66" s="21"/>
-      <c r="AE66" s="58"/>
-      <c r="AF66" s="63"/>
+      <c r="AE66" s="55"/>
+      <c r="AF66" s="60"/>
       <c r="AG66" s="16"/>
       <c r="AH66" s="17"/>
       <c r="AI66" s="16"/>
@@ -3636,38 +4413,38 @@
       <c r="AN66" s="6"/>
     </row>
     <row r="67" spans="1:40">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="34"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="33"/>
       <c r="F67" s="15"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="39"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="36"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="43"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="40"/>
       <c r="M67" s="19"/>
       <c r="N67" s="20"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="47"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="44"/>
       <c r="Q67" s="22"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="54"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="51"/>
       <c r="T67" s="21"/>
-      <c r="U67" s="58"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="60"/>
-      <c r="Y67" s="45"/>
-      <c r="Z67" s="62"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="65"/>
-      <c r="AC67" s="54"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="62"/>
+      <c r="AC67" s="51"/>
       <c r="AD67" s="21"/>
-      <c r="AE67" s="58"/>
-      <c r="AF67" s="63"/>
+      <c r="AE67" s="55"/>
+      <c r="AF67" s="60"/>
       <c r="AG67" s="16"/>
       <c r="AH67" s="17"/>
       <c r="AI67" s="16"/>
@@ -3678,38 +4455,38 @@
       <c r="AN67" s="6"/>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="34"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="39"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="43"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="40"/>
       <c r="M68" s="19"/>
       <c r="N68" s="20"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="47"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="44"/>
       <c r="Q68" s="22"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="54"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="51"/>
       <c r="T68" s="21"/>
-      <c r="U68" s="58"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="41"/>
-      <c r="X68" s="60"/>
-      <c r="Y68" s="45"/>
-      <c r="Z68" s="62"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="65"/>
-      <c r="AC68" s="54"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="57"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="59"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="62"/>
+      <c r="AC68" s="51"/>
       <c r="AD68" s="21"/>
-      <c r="AE68" s="58"/>
-      <c r="AF68" s="63"/>
+      <c r="AE68" s="55"/>
+      <c r="AF68" s="60"/>
       <c r="AG68" s="16"/>
       <c r="AH68" s="17"/>
       <c r="AI68" s="16"/>
@@ -3720,38 +4497,38 @@
       <c r="AN68" s="6"/>
     </row>
     <row r="69" spans="1:40">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="34"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="33"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="39"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="43"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="40"/>
       <c r="M69" s="19"/>
       <c r="N69" s="20"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="47"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="44"/>
       <c r="Q69" s="22"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="54"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="51"/>
       <c r="T69" s="21"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="45"/>
-      <c r="Z69" s="62"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="65"/>
-      <c r="AC69" s="54"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="57"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="62"/>
+      <c r="AC69" s="51"/>
       <c r="AD69" s="21"/>
-      <c r="AE69" s="58"/>
-      <c r="AF69" s="63"/>
+      <c r="AE69" s="55"/>
+      <c r="AF69" s="60"/>
       <c r="AG69" s="16"/>
       <c r="AH69" s="17"/>
       <c r="AI69" s="16"/>
@@ -3762,38 +4539,38 @@
       <c r="AN69" s="6"/>
     </row>
     <row r="70" spans="1:40">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="34"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="33"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="39"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="43"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="40"/>
       <c r="M70" s="19"/>
       <c r="N70" s="20"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="47"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="44"/>
       <c r="Q70" s="22"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="54"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="51"/>
       <c r="T70" s="21"/>
-      <c r="U70" s="58"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="41"/>
-      <c r="X70" s="60"/>
-      <c r="Y70" s="45"/>
-      <c r="Z70" s="62"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="65"/>
-      <c r="AC70" s="54"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="57"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="59"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="62"/>
+      <c r="AC70" s="51"/>
       <c r="AD70" s="21"/>
-      <c r="AE70" s="58"/>
-      <c r="AF70" s="63"/>
+      <c r="AE70" s="55"/>
+      <c r="AF70" s="60"/>
       <c r="AG70" s="16"/>
       <c r="AH70" s="17"/>
       <c r="AI70" s="16"/>
@@ -3804,38 +4581,38 @@
       <c r="AN70" s="6"/>
     </row>
     <row r="71" spans="1:40">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="34"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="33"/>
       <c r="F71" s="15"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="39"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="43"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="40"/>
       <c r="M71" s="19"/>
       <c r="N71" s="20"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="47"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="44"/>
       <c r="Q71" s="22"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="54"/>
+      <c r="R71" s="53"/>
+      <c r="S71" s="51"/>
       <c r="T71" s="21"/>
-      <c r="U71" s="58"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="60"/>
-      <c r="Y71" s="45"/>
-      <c r="Z71" s="62"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="65"/>
-      <c r="AC71" s="54"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="57"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="62"/>
+      <c r="AC71" s="51"/>
       <c r="AD71" s="21"/>
-      <c r="AE71" s="58"/>
-      <c r="AF71" s="63"/>
+      <c r="AE71" s="55"/>
+      <c r="AF71" s="60"/>
       <c r="AG71" s="16"/>
       <c r="AH71" s="17"/>
       <c r="AI71" s="16"/>
@@ -3846,38 +4623,38 @@
       <c r="AN71" s="6"/>
     </row>
     <row r="72" spans="1:40">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="34"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="33"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="39"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="36"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="43"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="40"/>
       <c r="M72" s="19"/>
       <c r="N72" s="20"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="47"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="44"/>
       <c r="Q72" s="22"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="54"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="51"/>
       <c r="T72" s="21"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="41"/>
-      <c r="X72" s="60"/>
-      <c r="Y72" s="45"/>
-      <c r="Z72" s="62"/>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="54"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="57"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="62"/>
+      <c r="AC72" s="51"/>
       <c r="AD72" s="21"/>
-      <c r="AE72" s="58"/>
-      <c r="AF72" s="63"/>
+      <c r="AE72" s="55"/>
+      <c r="AF72" s="60"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="17"/>
       <c r="AI72" s="16"/>
@@ -3888,38 +4665,38 @@
       <c r="AN72" s="6"/>
     </row>
     <row r="73" spans="1:40">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="33"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="39"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="43"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="40"/>
       <c r="M73" s="19"/>
       <c r="N73" s="20"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="47"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="44"/>
       <c r="Q73" s="22"/>
-      <c r="R73" s="56"/>
-      <c r="S73" s="54"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="51"/>
       <c r="T73" s="21"/>
-      <c r="U73" s="58"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="60"/>
-      <c r="Y73" s="45"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="65"/>
-      <c r="AC73" s="54"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="57"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="59"/>
+      <c r="AA73" s="49"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="51"/>
       <c r="AD73" s="21"/>
-      <c r="AE73" s="58"/>
-      <c r="AF73" s="63"/>
+      <c r="AE73" s="55"/>
+      <c r="AF73" s="60"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="17"/>
       <c r="AI73" s="16"/>
@@ -3930,38 +4707,38 @@
       <c r="AN73" s="6"/>
     </row>
     <row r="74" spans="1:40">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="34"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="33"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="39"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="43"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="40"/>
       <c r="M74" s="19"/>
       <c r="N74" s="20"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="47"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="44"/>
       <c r="Q74" s="22"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="54"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="51"/>
       <c r="T74" s="21"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="41"/>
-      <c r="X74" s="60"/>
-      <c r="Y74" s="45"/>
-      <c r="Z74" s="62"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="65"/>
-      <c r="AC74" s="54"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="59"/>
+      <c r="AA74" s="49"/>
+      <c r="AB74" s="62"/>
+      <c r="AC74" s="51"/>
       <c r="AD74" s="21"/>
-      <c r="AE74" s="58"/>
-      <c r="AF74" s="63"/>
+      <c r="AE74" s="55"/>
+      <c r="AF74" s="60"/>
       <c r="AG74" s="16"/>
       <c r="AH74" s="17"/>
       <c r="AI74" s="16"/>
@@ -3972,38 +4749,38 @@
       <c r="AN74" s="6"/>
     </row>
     <row r="75" spans="1:40">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="34"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="33"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="39"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="43"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="40"/>
       <c r="M75" s="19"/>
       <c r="N75" s="20"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="47"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="44"/>
       <c r="Q75" s="22"/>
-      <c r="R75" s="56"/>
-      <c r="S75" s="54"/>
+      <c r="R75" s="53"/>
+      <c r="S75" s="51"/>
       <c r="T75" s="21"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="60"/>
-      <c r="Y75" s="45"/>
-      <c r="Z75" s="62"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="65"/>
-      <c r="AC75" s="54"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="59"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="62"/>
+      <c r="AC75" s="51"/>
       <c r="AD75" s="21"/>
-      <c r="AE75" s="58"/>
-      <c r="AF75" s="63"/>
+      <c r="AE75" s="55"/>
+      <c r="AF75" s="60"/>
       <c r="AG75" s="16"/>
       <c r="AH75" s="17"/>
       <c r="AI75" s="16"/>
@@ -4014,38 +4791,38 @@
       <c r="AN75" s="6"/>
     </row>
     <row r="76" spans="1:40">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="34"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="33"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="39"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="43"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="19"/>
       <c r="N76" s="20"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="47"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="44"/>
       <c r="Q76" s="22"/>
-      <c r="R76" s="56"/>
-      <c r="S76" s="54"/>
+      <c r="R76" s="53"/>
+      <c r="S76" s="51"/>
       <c r="T76" s="21"/>
-      <c r="U76" s="58"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="60"/>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="62"/>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="65"/>
-      <c r="AC76" s="54"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="59"/>
+      <c r="AA76" s="49"/>
+      <c r="AB76" s="62"/>
+      <c r="AC76" s="51"/>
       <c r="AD76" s="21"/>
-      <c r="AE76" s="58"/>
-      <c r="AF76" s="63"/>
+      <c r="AE76" s="55"/>
+      <c r="AF76" s="60"/>
       <c r="AG76" s="16"/>
       <c r="AH76" s="17"/>
       <c r="AI76" s="16"/>
@@ -4056,38 +4833,38 @@
       <c r="AN76" s="6"/>
     </row>
     <row r="77" spans="1:40">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="34"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="33"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="39"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="43"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="40"/>
       <c r="M77" s="19"/>
       <c r="N77" s="20"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="47"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="44"/>
       <c r="Q77" s="22"/>
-      <c r="R77" s="56"/>
-      <c r="S77" s="54"/>
+      <c r="R77" s="53"/>
+      <c r="S77" s="51"/>
       <c r="T77" s="21"/>
-      <c r="U77" s="58"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="60"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="62"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="65"/>
-      <c r="AC77" s="54"/>
+      <c r="U77" s="55"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="57"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="59"/>
+      <c r="AA77" s="49"/>
+      <c r="AB77" s="62"/>
+      <c r="AC77" s="51"/>
       <c r="AD77" s="21"/>
-      <c r="AE77" s="58"/>
-      <c r="AF77" s="63"/>
+      <c r="AE77" s="55"/>
+      <c r="AF77" s="60"/>
       <c r="AG77" s="16"/>
       <c r="AH77" s="17"/>
       <c r="AI77" s="16"/>
@@ -4098,38 +4875,38 @@
       <c r="AN77" s="6"/>
     </row>
     <row r="78" spans="1:40">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="34"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="33"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="39"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="43"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="40"/>
       <c r="M78" s="19"/>
       <c r="N78" s="20"/>
-      <c r="O78" s="52"/>
-      <c r="P78" s="47"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="44"/>
       <c r="Q78" s="22"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="54"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="51"/>
       <c r="T78" s="21"/>
-      <c r="U78" s="58"/>
-      <c r="V78" s="34"/>
-      <c r="W78" s="41"/>
-      <c r="X78" s="60"/>
-      <c r="Y78" s="45"/>
-      <c r="Z78" s="62"/>
-      <c r="AA78" s="52"/>
-      <c r="AB78" s="65"/>
-      <c r="AC78" s="54"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="59"/>
+      <c r="AA78" s="49"/>
+      <c r="AB78" s="62"/>
+      <c r="AC78" s="51"/>
       <c r="AD78" s="21"/>
-      <c r="AE78" s="58"/>
-      <c r="AF78" s="63"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="60"/>
       <c r="AG78" s="16"/>
       <c r="AH78" s="17"/>
       <c r="AI78" s="16"/>
@@ -4140,38 +4917,38 @@
       <c r="AN78" s="6"/>
     </row>
     <row r="79" spans="1:40">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="34"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="33"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="39"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="43"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="40"/>
       <c r="M79" s="19"/>
       <c r="N79" s="20"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="47"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="44"/>
       <c r="Q79" s="22"/>
-      <c r="R79" s="56"/>
-      <c r="S79" s="54"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="51"/>
       <c r="T79" s="21"/>
-      <c r="U79" s="58"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="41"/>
-      <c r="X79" s="60"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="62"/>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="65"/>
-      <c r="AC79" s="54"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="49"/>
+      <c r="AB79" s="62"/>
+      <c r="AC79" s="51"/>
       <c r="AD79" s="21"/>
-      <c r="AE79" s="58"/>
-      <c r="AF79" s="63"/>
+      <c r="AE79" s="55"/>
+      <c r="AF79" s="60"/>
       <c r="AG79" s="16"/>
       <c r="AH79" s="17"/>
       <c r="AI79" s="16"/>
@@ -4182,38 +4959,38 @@
       <c r="AN79" s="6"/>
     </row>
     <row r="80" spans="1:40">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="34"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="33"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="39"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="18"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="43"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="40"/>
       <c r="M80" s="19"/>
       <c r="N80" s="20"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="47"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="44"/>
       <c r="Q80" s="22"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="54"/>
+      <c r="R80" s="53"/>
+      <c r="S80" s="51"/>
       <c r="T80" s="21"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="41"/>
-      <c r="X80" s="60"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="62"/>
-      <c r="AA80" s="52"/>
-      <c r="AB80" s="65"/>
-      <c r="AC80" s="54"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="57"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="49"/>
+      <c r="AB80" s="62"/>
+      <c r="AC80" s="51"/>
       <c r="AD80" s="21"/>
-      <c r="AE80" s="58"/>
-      <c r="AF80" s="63"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="60"/>
       <c r="AG80" s="16"/>
       <c r="AH80" s="17"/>
       <c r="AI80" s="16"/>
@@ -4224,9 +5001,9 @@
       <c r="AN80" s="6"/>
     </row>
     <row r="81" spans="1:40">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4265,9 +5042,9 @@
       <c r="AN81" s="6"/>
     </row>
     <row r="82" spans="1:40">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4306,9 +5083,9 @@
       <c r="AN82" s="6"/>
     </row>
     <row r="83" spans="1:40">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4347,9 +5124,9 @@
       <c r="AN83" s="6"/>
     </row>
     <row r="84" spans="1:40">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4388,9 +5165,9 @@
       <c r="AN84" s="6"/>
     </row>
     <row r="85" spans="1:40">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4428,6 +5205,656 @@
       <c r="AM85" s="6"/>
       <c r="AN85" s="6"/>
     </row>
+    <row r="86" spans="1:40">
+      <c r="A86" s="65"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="69"/>
+    </row>
+    <row r="87" spans="1:40">
+      <c r="A87" s="65"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="69"/>
+    </row>
+    <row r="88" spans="1:40">
+      <c r="A88" s="65"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="69"/>
+    </row>
+    <row r="89" spans="1:40">
+      <c r="A89" s="65"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="69"/>
+    </row>
+    <row r="90" spans="1:40">
+      <c r="A90" s="65"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="69"/>
+    </row>
+    <row r="91" spans="1:40">
+      <c r="A91" s="65"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="69"/>
+    </row>
+    <row r="92" spans="1:40">
+      <c r="A92" s="65"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="69"/>
+    </row>
+    <row r="93" spans="1:40">
+      <c r="A93" s="65"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="69"/>
+    </row>
+    <row r="94" spans="1:40">
+      <c r="A94" s="65"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="69"/>
+    </row>
+    <row r="95" spans="1:40">
+      <c r="A95" s="65"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="69"/>
+    </row>
+    <row r="96" spans="1:40">
+      <c r="A96" s="65"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="69"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="65"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="69"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="65"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="69"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="65"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="69"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="65"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="69"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="65"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="69"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="65"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="69"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="65"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="69"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="65"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="69"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="65"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="69"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="65"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="69"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="65"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="69"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="65"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="69"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="65"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="69"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="65"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="69"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="65"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="69"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="65"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="69"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="65"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="69"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="65"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="69"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="65"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="69"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="65"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="69"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="65"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="69"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="65"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="69"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="65"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="69"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="65"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="69"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="65"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="69"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="65"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="69"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="65"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="69"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="65"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="69"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="65"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="69"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="65"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="69"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="65"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="69"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="65"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="69"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="65"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="69"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="65"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="69"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="65"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="69"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="65"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="69"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="65"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="69"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="65"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="69"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="65"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="69"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="65"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="69"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="65"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="69"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="65"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="69"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="65"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="69"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="65"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="69"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="65"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="69"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="65"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="69"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="65"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="69"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="65"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="69"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="65"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="69"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="65"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="69"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="65"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="69"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="65"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="69"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="65"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="69"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="65"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="69"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="65"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="69"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="65"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="69"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="65"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="69"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="65"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="69"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="65"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="69"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="65"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="69"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="65"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="69"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="65"/>
+      <c r="B158" s="66"/>
+      <c r="C158" s="69"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="65"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="69"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="65"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="69"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="65"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="69"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="65"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="69"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="65"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="69"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="65"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="69"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="65"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="69"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="65"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="69"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="65"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="69"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="65"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="69"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="65"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="69"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="65"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="69"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="65"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="69"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="65"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="69"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="65"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="69"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="65"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="69"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="65"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="69"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="65"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="69"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="65"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="69"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="65"/>
+      <c r="B178" s="66"/>
+      <c r="C178" s="69"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="65"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="69"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="65"/>
+      <c r="B180" s="66"/>
+      <c r="C180" s="69"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="65"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="69"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="65"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="69"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="65"/>
+      <c r="B183" s="66"/>
+      <c r="C183" s="69"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="65"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="69"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="65"/>
+      <c r="B185" s="66"/>
+      <c r="C185" s="69"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="65"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="69"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="65"/>
+      <c r="B187" s="66"/>
+      <c r="C187" s="69"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="65"/>
+      <c r="B188" s="66"/>
+      <c r="C188" s="69"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="65"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="69"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="65"/>
+      <c r="B190" s="66"/>
+      <c r="C190" s="69"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="65"/>
+      <c r="B191" s="66"/>
+      <c r="C191" s="69"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="65"/>
+      <c r="B192" s="66"/>
+      <c r="C192" s="69"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="65"/>
+      <c r="B193" s="66"/>
+      <c r="C193" s="69"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="65"/>
+      <c r="B194" s="66"/>
+      <c r="C194" s="69"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="65"/>
+      <c r="B195" s="66"/>
+      <c r="C195" s="69"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="65"/>
+      <c r="B196" s="66"/>
+      <c r="C196" s="69"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="65"/>
+      <c r="B197" s="66"/>
+      <c r="C197" s="69"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="65"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="69"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="65"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="69"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="65"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="69"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="65"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="69"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="65"/>
+      <c r="B202" s="66"/>
+      <c r="C202" s="69"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="65"/>
+      <c r="B203" s="66"/>
+      <c r="C203" s="69"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="65"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="69"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="65"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="69"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="65"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="69"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="65"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="69"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="65"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="69"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="65"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="69"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="65"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="69"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="65"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="69"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="65"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="69"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="65"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="69"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="65"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="69"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="70"/>
+      <c r="B215" s="71"/>
+      <c r="C215" s="72"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
